--- a/htsfiles.xlsx
+++ b/htsfiles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -238,23 +238,15 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://ga4gh.org/fhir/phenopackets/StructureDefinition/HtsFile}
+    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/HtsFile) &lt;&lt;bundled&gt;&gt;
 </t>
-  </si>
-  <si>
-    <t>A reference to a document</t>
-  </si>
-  <si>
-    <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
-  </si>
-  <si>
-    <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN"]</t>
   </si>
 </sst>
 </file>
@@ -447,7 +439,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="50.5859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,7 +846,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1054,7 +1046,7 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>64</v>
@@ -1065,7 +1057,7 @@
         <v>65</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1087,17 +1079,15 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>37</v>
@@ -1158,10 +1148,10 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
